--- a/Data/2010 STOP Summary.xlsx
+++ b/Data/2010 STOP Summary.xlsx
@@ -3316,7 +3316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G56" sqref="A1:G56"/>
@@ -26617,7 +26617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R199"/>
+  <dimension ref="A1:O199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H54" sqref="A1:H54"/>
@@ -30333,7 +30333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
@@ -33350,7 +33350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -37709,7 +37709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
@@ -42080,7 +42080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N199"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -44978,7 +44978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>

--- a/Data/2010 STOP Summary.xlsx
+++ b/Data/2010 STOP Summary.xlsx
@@ -3316,7 +3316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G56" sqref="A1:G56"/>
@@ -5275,117 +5275,12 @@
     <row r="92">
       <c r="A92" s="54" t="n"/>
     </row>
-    <row r="93"/>
     <row r="94">
       <c r="F94" s="107" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="3" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="F2:F3"/>
@@ -26617,7 +26512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H54" sqref="A1:H54"/>
@@ -30174,120 +30069,9 @@
         <v>1423855</v>
       </c>
     </row>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
     <row r="94">
       <c r="A94" s="3" t="n"/>
     </row>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="N2:N3"/>
@@ -30333,7 +30117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
@@ -33200,118 +32984,9 @@
     <row r="89">
       <c r="I89" s="80" t="n"/>
     </row>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
     <row r="95">
       <c r="A95" s="3" t="n"/>
     </row>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A1:B3"/>
@@ -33350,7 +33025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -37554,115 +37229,9 @@
     <row r="92">
       <c r="F92" s="80" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
     <row r="99">
       <c r="A99" s="3" t="n"/>
     </row>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="J2:J3"/>
@@ -37709,7 +37278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
@@ -41925,115 +41494,9 @@
       <c r="I92" s="80" t="n"/>
       <c r="M92" s="80" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
     <row r="99">
       <c r="A99" s="3" t="n"/>
     </row>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="K2:K3"/>
@@ -42080,7 +41543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -44833,114 +44296,9 @@
       <c r="G93" s="80" t="n"/>
       <c r="H93" s="80" t="n"/>
     </row>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
     <row r="98">
       <c r="A98" s="3" t="n"/>
     </row>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="G2:G3"/>
@@ -44978,7 +44336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
@@ -47197,116 +46555,9 @@
         <v>4151256</v>
       </c>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="3" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A59:B60"/>
@@ -47342,7 +46593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -49024,116 +48275,9 @@
     <row r="91">
       <c r="A91" s="54" t="n"/>
     </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
     <row r="96">
       <c r="A96" s="3" t="n"/>
     </row>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F2:F3"/>
@@ -49167,7 +48311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -51131,115 +50275,9 @@
       <c r="D92" s="80" t="n"/>
       <c r="E92" s="80" t="n"/>
     </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
     <row r="97">
       <c r="A97" s="3" t="n"/>
     </row>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
-    <row r="150"/>
-    <row r="151"/>
-    <row r="152"/>
-    <row r="153"/>
-    <row r="154"/>
-    <row r="155"/>
-    <row r="156"/>
-    <row r="157"/>
-    <row r="158"/>
-    <row r="159"/>
-    <row r="160"/>
-    <row r="161"/>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164"/>
-    <row r="165"/>
-    <row r="166"/>
-    <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
-    <row r="174"/>
-    <row r="175"/>
-    <row r="176"/>
-    <row r="177"/>
-    <row r="178"/>
-    <row r="179"/>
-    <row r="180"/>
-    <row r="181"/>
-    <row r="182"/>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185"/>
-    <row r="186"/>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A59:B60"/>
